--- a/DEMOQA/Testdata/Elements.xlsx
+++ b/DEMOQA/Testdata/Elements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="8000" activeTab="5"/>
+    <workbookView windowWidth="18350" windowHeight="8000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Text Box" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Full Name</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>Not Found</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>Valid image</t>
+  </si>
+  <si>
+    <t>Valid Link</t>
+  </si>
+  <si>
+    <t>Broken image</t>
+  </si>
+  <si>
+    <t>Broken Link</t>
   </si>
 </sst>
 </file>
@@ -1835,7 +1853,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1912,14 +1930,43 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="15.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
